--- a/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_30.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI World_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI World_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI World_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI World_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI World_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI World_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI World_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI World_두바이유가</t>
   </si>
   <si>
-    <t>MSCI World_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI World_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI World_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI World_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI World_미국 REER</t>
   </si>
   <si>
-    <t>MSCI World_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI World_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI World_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI World_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI World_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI World_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI World_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI World_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI World_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI World_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI World_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI World_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI World_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI World_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 REER</t>
   </si>
   <si>
-    <t>MSCI World_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI World_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI World_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI World_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI World_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,127 +2657,127 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -3038,73 +2813,73 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
         <v>2</v>
       </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3116,203 +2891,203 @@
         <v>1</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
       <c r="CV3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
         <v>2</v>
       </c>
-      <c r="DR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
@@ -3323,298 +3098,298 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="GE3" t="n">
         <v>2</v>
       </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" t="n">
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>1</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9275907610845896</v>
+        <v>-0.9411069585720112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9043235630829188</v>
+        <v>0.9541150559667708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.918213299649979</v>
+        <v>0.8143452642102504</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8947269545812986</v>
+        <v>0.8770001515879359</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6448478740615142</v>
+        <v>0.5026321215054048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4869520066237301</v>
+        <v>-0.3671809207553445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9617337205377461</v>
+        <v>0.9666391765669728</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9544670953699854</v>
+        <v>0.9341295409759995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9514148369639476</v>
+        <v>0.6189813405934228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9658054318450535</v>
+        <v>0.3783631115679669</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9454096635862834</v>
+        <v>-0.4800302186206926</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8850498376916223</v>
+        <v>0.9689368240104792</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9402752838998627</v>
+        <v>-0.8038822674431909</v>
       </c>
       <c r="O4" t="n">
-        <v>0.928267077683134</v>
+        <v>0.9553088327120215</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5218531448430335</v>
+        <v>0.9366746973150233</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5777210456324094</v>
+        <v>0.9104243620135812</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7987376792319218</v>
+        <v>0.5814388364525833</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9446836456629777</v>
+        <v>0.7458096525845603</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8432285216136555</v>
+        <v>-0.6541900964904406</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8866001986976583</v>
+        <v>0.8822980690982328</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8040523586494854</v>
+        <v>0.554969944704847</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8444420495990391</v>
+        <v>0.9280285437756634</v>
       </c>
       <c r="X4" t="n">
-        <v>0.609981922991608</v>
+        <v>0.8584443940537161</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6725344074486599</v>
+        <v>-0.3136137341988101</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7116493226950186</v>
+        <v>0.9016403516815474</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8906623641336763</v>
+        <v>0.7109468951014749</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6863614294132871</v>
+        <v>0.9085341558138302</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.920336311244181</v>
+        <v>0.6468517092660334</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8474850410181105</v>
+        <v>0.9421940961904042</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1041727186440732</v>
+        <v>0.7674433165335446</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9022172883669499</v>
+        <v>0.8030324054789763</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.681987533045621</v>
+        <v>0.6120119096139798</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9173505761588424</v>
+        <v>0.1841319072163092</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6545080873634463</v>
+        <v>0.9452042690072021</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9472798962797556</v>
+        <v>-0.08167492287012446</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7533525160453421</v>
+        <v>0.893115184158207</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5579763476397419</v>
+        <v>-0.08792849201889055</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7464896710778993</v>
+        <v>-0.8198056351193971</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.222235272262747</v>
+        <v>-0.748049239900025</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9692833146030082</v>
+        <v>0.964040668842324</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3412169013854489</v>
+        <v>0.2590090539877336</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9298630678225266</v>
+        <v>-0.7863404451521918</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3010728506684305</v>
+        <v>-0.5904237902427828</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.4637528939789367</v>
+        <v>0.9829052669993389</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7737706762920677</v>
+        <v>0.9993571454424356</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9630582771441279</v>
+        <v>0.996612370779755</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2908386047634062</v>
+        <v>0.9752739996410582</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.785611045877268</v>
+        <v>0.9719666853061444</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.739136902565713</v>
+        <v>0.9835489426497491</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9896125531009662</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9996908696867346</v>
+        <v>0.9944056752685621</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9962802863149158</v>
+        <v>0.9831627552693758</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.978826669882618</v>
+        <v>0.9666685135920179</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9874524270453501</v>
+        <v>0.8968438273313596</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9896637378646216</v>
+        <v>0.8386214790341583</v>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>0.1998526002641451</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9940698995935189</v>
+        <v>0.891241054207454</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9788683752132433</v>
+        <v>-0.1583117477694174</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9016218106505718</v>
+        <v>0.8473725200146635</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9071742811676081</v>
+        <v>-0.1364764678777911</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7608736468812762</v>
+        <v>0.8741619753563817</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3318619895364559</v>
+        <v>0.9088834366651058</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2526199845578167</v>
+        <v>0.4553802097211885</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9135922885883681</v>
+        <v>-0.7150205187034878</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8890573093415159</v>
+        <v>0.9956200194436523</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9520973731276333</v>
+        <v>0.8784608645072506</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2721892148620555</v>
+        <v>0.9874602113821584</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8501421487138487</v>
+        <v>0.4613208260805303</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.0397839608909216</v>
+        <v>0.9716809412047793</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8865269748988744</v>
+        <v>0.9162314532347016</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8668772456480173</v>
+        <v>0.4654807159144201</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.604987980559478</v>
+        <v>0.8612807266666443</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.4258576659686899</v>
+        <v>0.8619853337632645</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9950375035078789</v>
+        <v>0.8585882147811333</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9085480048858963</v>
+        <v>-0.7400125483440353</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9897788720250212</v>
+        <v>-0.3398941677005696</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7770776513232658</v>
+        <v>0.8199875962102157</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9785818575807647</v>
+        <v>0.9658104539214473</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9141516687698024</v>
+        <v>0.8941828123339305</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6774394990803927</v>
+        <v>0.8604822947938373</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.905127734214918</v>
+        <v>0.3476648546633377</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.79063681863844</v>
+        <v>0.6414227333251391</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8007415676507096</v>
+        <v>0.7645909688286775</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8896657946747587</v>
+        <v>-0.4085396152563552</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4203443911255684</v>
+        <v>0.8354587965036485</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.4895576894918055</v>
+        <v>0.358134766889301</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8923325957035919</v>
+        <v>-0.2684684072565173</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8534453048248594</v>
+        <v>0.3774917551010525</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.741665633339798</v>
+        <v>-0.2057863626591872</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4544573555628587</v>
+        <v>0.4863623360695787</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7320903559541352</v>
+        <v>0.9684142907192261</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7779659698800914</v>
+        <v>-0.5200384978775431</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6373815147677595</v>
+        <v>0.9248240470392955</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8421766476096169</v>
+        <v>0.9635062633346001</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5991901380989288</v>
+        <v>-0.6136750633189838</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.09863030614292084</v>
+        <v>0.9563599252575152</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.4633542113507474</v>
+        <v>0.5053066576714377</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1388938130630386</v>
+        <v>0.9077395696764559</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6693093527258255</v>
+        <v>0.9101329403813299</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9711566582448505</v>
+        <v>0.8827083904090202</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3131794954714271</v>
+        <v>0.9006160603108604</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.8279887663450884</v>
+        <v>-0.619710621624996</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9660947333990304</v>
+        <v>0.8163897641642293</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5250843412849263</v>
+        <v>0.7763212934560925</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9571872805465284</v>
+        <v>0.940337361709233</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5368788620967364</v>
+        <v>-0.460621019194657</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8926846553108715</v>
+        <v>0.59682322445157</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9167255049147481</v>
+        <v>0.7552543279408037</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8888222647151978</v>
+        <v>0.1434883398702145</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9299266201458534</v>
+        <v>0.8861074741000619</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6570099935373701</v>
+        <v>-0.3454331247879426</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7866684234915174</v>
+        <v>0.8106763427749277</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.5742321170102116</v>
+        <v>-0.7097882936392369</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9323327495411656</v>
+        <v>0.4976705704189939</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6613346506065602</v>
+        <v>-0.3292471190674435</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7117063441248532</v>
+        <v>-0.8873795103305336</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7980799690985148</v>
+        <v>0.8229910491894894</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1807085846643112</v>
+        <v>0.3965976199688106</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8919159617584811</v>
+        <v>-0.428970636655455</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8735076911557863</v>
+        <v>0.9684142907192261</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8459248226748994</v>
+        <v>0.9573638476993438</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1975125277812006</v>
+        <v>0.9609072128707377</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7828044243610653</v>
+        <v>0.8320391782234751</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7539898515910952</v>
+        <v>0.9165412163684353</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5098187840931178</v>
+        <v>0.5968178266213082</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3443704347972804</v>
+        <v>0.8175036762518308</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7917162273892699</v>
+        <v>-0.9401876997912814</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8165234234838511</v>
+        <v>0.9862310428793871</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9146530197819327</v>
+        <v>0.7667071076932382</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3334502657305727</v>
+        <v>0.9688339188943357</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5432694399416308</v>
+        <v>0.9603388659211192</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.925950545728531</v>
+        <v>0.6678251681630138</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9711566582448505</v>
+        <v>-0.7181936024846782</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9675256906586933</v>
+        <v>0.272560879068601</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9081731370251702</v>
+        <v>-0.1156958634651725</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.732025790743289</v>
+        <v>0.8859032546162043</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9262858807314066</v>
+        <v>0.9631458279762506</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.4002381301543556</v>
+        <v>0.5959931430045651</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9024090875867095</v>
+        <v>0.8766769574387731</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9534203528435299</v>
+        <v>0.9504569450256368</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9934867081342565</v>
+        <v>0.8862072217576135</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7322899028699501</v>
+        <v>0.8632889872484373</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9592325380196158</v>
+        <v>0.9089879444254907</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9565183018928989</v>
+        <v>-0.9715683987774809</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6526249531111071</v>
+        <v>0.9387716603321709</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7811459481471758</v>
+        <v>0.1865187355594651</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.3499212791525766</v>
+        <v>0.8661549337193954</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2056782912533284</v>
+        <v>-0.8876183644737174</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8598813965081724</v>
+        <v>-0.9092259161422294</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9631739995648054</v>
+        <v>-0.932265975351264</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.2633198439710208</v>
+        <v>0.7691087591939875</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8782969447017352</v>
+        <v>0.7922573982227518</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9408056123938281</v>
+        <v>0.8774486968272823</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8853316481361859</v>
+        <v>0.6169139147765808</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8360292586335698</v>
+        <v>0.6528745771317011</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8974618587389932</v>
+        <v>0.4745586900934554</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9683666359903652</v>
+        <v>-0.5950471863775545</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9389821164665396</v>
+        <v>0.3783631115679669</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2361251644024666</v>
+        <v>0.8749012393593613</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.726429584385646</v>
+        <v>0.5962759337483444</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8782744203756576</v>
+        <v>0.3670517657381598</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9234432501449753</v>
+        <v>-0.5399216292186853</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9175370908636781</v>
+        <v>0.8135501392992674</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7519677271747383</v>
+        <v>-0.4155006832401413</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7838418874696769</v>
+        <v>-0.2492453247943479</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8562855757158</v>
+        <v>-0.5732291878852639</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9485599045677412</v>
+        <v>0.2349307361835188</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6900085851056877</v>
+        <v>0.9606217436313138</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.6067621969690038</v>
+        <v>0.7793295828277735</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.4141102787686042</v>
+        <v>-0.526091764834447</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.4483361789993457</v>
+        <v>-0.8413773912196074</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5777210456324094</v>
+        <v>0.9004750160109865</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9071536324897497</v>
+        <v>0.4758551058851446</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.446496288856232</v>
+        <v>0.2434027061948204</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5137150992901784</v>
+        <v>0.7683387684662433</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.2723240156712908</v>
+        <v>0.9606217436313138</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8462942247786985</v>
+        <v>0.7004045668947632</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4103475070976455</v>
+        <v>0.7672552500324172</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1471939129595893</v>
+        <v>0.8099607301939143</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4727474832415708</v>
+        <v>-0.668783344923374</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7195844997827877</v>
+        <v>-0.2119583102623246</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4819062609639587</v>
+        <v>-0.6989201947012156</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2013674950178457</v>
+        <v>0.7300043370536604</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9323003815306287</v>
+        <v>0.7214958186355842</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.7345768442448294</v>
+        <v>0.5487030068430983</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.3168981963431172</v>
+        <v>0.9187107581919483</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7591240737289222</v>
+        <v>0.9343605260291006</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9026432916126804</v>
+        <v>0.4652531464687029</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3949338679808341</v>
+        <v>0.9136388427647009</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8750890087545652</v>
+        <v>-0.8142613554599675</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.605692491902198</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7168895991410418</v>
+        <v>-0.1556597658803296</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9323003815306287</v>
+        <v>0.412580057115876</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3914947646689174</v>
+        <v>0.9556169717718702</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8670362121209156</v>
+        <v>0.8801796022377368</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.2255202628584495</v>
+        <v>-0.5004945552893973</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7880714857183868</v>
+        <v>-0.7045184391369933</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7908581552857559</v>
+        <v>-4.116379914653656e-17</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.1181527064028625</v>
+        <v>-4.116379914653656e-17</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.7474625912767886</v>
+        <v>0.7699225130979998</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.348295733687576</v>
+        <v>0.6979616192718201</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7338356363902512</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8160431342389634</v>
+        <v>0.3851098617038893</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7202140080960862</v>
+        <v>0.2715049610357386</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5122379471826755</v>
+        <v>0.5521160755348556</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9056567646709972</v>
+        <v>0.6555623739613982</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8970431436384737</v>
+        <v>-0.6207201208851947</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2428601567051636</v>
+        <v>0.8335165427158152</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8386709560859257</v>
+        <v>0.7274431967354278</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8059331916293903</v>
+        <v>-0.4709222684830209</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2403187013068823</v>
+        <v>-0.7380250791717443</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2182005621758171</v>
+        <v>0.3428950741370134</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.421536477793723</v>
+        <v>-0.3245256328985286</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9067223894208962</v>
+        <v>0.4091164207952767</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7802913598408276</v>
+        <v>0.9749157957103936</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9213630304039176</v>
+        <v>-0.8347119054554275</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7489294037774723</v>
+        <v>0.2695064754862367</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7176871212937348</v>
+        <v>0.3603942152334136</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2403187013068822</v>
+        <v>0.7714633006945535</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2403187013068822</v>
+        <v>0.8638616204798895</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8005555900195638</v>
+        <v>-0.2503368633197033</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7342686829345291</v>
+        <v>-0.1672793272686067</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2403187013068823</v>
+        <v>-0.3942046955532476</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.198974505229588</v>
+        <v>-0.1247227016923854</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3479513518388412</v>
+        <v>-0.732422052985243</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.547437861183724</v>
+        <v>0.9631188041836902</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7963082261139143</v>
+        <v>-0.3920429232271509</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6203778025037294</v>
+        <v>0.6613953052454913</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8917351359052419</v>
+        <v>0.5391621488844068</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.873122379904032</v>
+        <v>0.8038393736435513</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8596170792427931</v>
+        <v>0.7125612238389869</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2005760010567325</v>
+        <v>0.6238444810221619</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8981717384515105</v>
+        <v>-0.2911688651053754</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6914677850707842</v>
+        <v>-0.597372500407594</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4898142959272115</v>
+        <v>-0.290870753264525</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6391389048119603</v>
+        <v>-0.3478797261177179</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4506481853006309</v>
+        <v>-0.8458044155953198</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.03749091049539353</v>
+        <v>0.7820983994869647</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4788152694122889</v>
+        <v>0.128367272788885</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9562073999719998</v>
+        <v>-0.7805604941762092</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7856252465156512</v>
+        <v>-0.6170495313457343</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4486564025817689</v>
+        <v>0.7820983994869647</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5037746365661444</v>
+        <v>0.7283165405627928</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2179346777854815</v>
+        <v>-0.3711163945847104</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7610707042182341</v>
+        <v>0.3580425154140213</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1624610358741725</v>
+        <v>-0.3452527691110716</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.04382814657816626</v>
+        <v>-0.5769114288167457</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3423342210523951</v>
+        <v>0.9505622662120604</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1919725015827755</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.815071382611287</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9438120497032659</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4888177992820002</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6592708684184266</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5413582255809301</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8378986312903337</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8216412119217386</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8074126671885757</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3067504311824321</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5413727193644915</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1566819689427368</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3413421903643073</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7915440127646707</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.784459781347106</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2021939234718028</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8684509943069073</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.528010100586649</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.784459781347106</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.813520363562092</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4896154811195194</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3120790550372727</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2894314617702141</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5369160708836893</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9531584466362825</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8769378979678379</v>
+        <v>0.8407346574078411</v>
       </c>
     </row>
   </sheetData>
